--- a/Data/crime_changes.xlsx
+++ b/Data/crime_changes.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eamonnryan/ds4200-d7-project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eamonnryan/Desktop/ds4200-d7-project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD0533E-521C-DC4E-90E5-890CA6384217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAEBEF0-4887-094A-AD49-FAFF9D3114E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1960" windowWidth="27240" windowHeight="15420" xr2:uid="{29B2A64E-36A1-8B47-BFEB-E5388C46209A}"/>
+    <workbookView xWindow="1560" yWindow="1500" windowWidth="27240" windowHeight="15420" xr2:uid="{29B2A64E-36A1-8B47-BFEB-E5388C46209A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -206,7 +206,7 @@
     <t>Missing Person</t>
   </si>
   <si>
-    <t>YTY Change</t>
+    <t>Year-to-year percentage change</t>
   </si>
 </sst>
 </file>
@@ -258,13 +258,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,15 +585,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03877C6-5BC3-634D-9366-575DC17F65E2}">
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="4" customWidth="1"/>
     <col min="15" max="15" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -604,7 +607,7 @@
       <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -619,7 +622,7 @@
         <f>SUM(H50:H51)</f>
         <v>333</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>0</v>
       </c>
     </row>
@@ -634,9 +637,9 @@
         <f>SUM(J50:J51)</f>
         <v>520</v>
       </c>
-      <c r="D3" s="3">
-        <f>(C3-C2)/C2</f>
-        <v>0.56156156156156156</v>
+      <c r="D3" s="6">
+        <f>100*(C3-C2)/C2</f>
+        <v>56.156156156156158</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -650,9 +653,9 @@
         <f>SUM(L50:L51)</f>
         <v>505</v>
       </c>
-      <c r="D4" s="3">
-        <f>(C4-C3)/C3</f>
-        <v>-2.8846153846153848E-2</v>
+      <c r="D4" s="6">
+        <f>100*(C4-C3)/C3</f>
+        <v>-2.8846153846153846</v>
       </c>
       <c r="J4" t="str" cm="1">
         <f t="array" ref="J4:P11">TRANSPOSE(J20:Q26)</f>
@@ -688,9 +691,9 @@
         <f>SUM(N50:N51)</f>
         <v>531</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" ref="D5:D64" si="0">(C5-C4)/C4</f>
-        <v>5.1485148514851482E-2</v>
+      <c r="D5" s="6">
+        <f t="shared" ref="D5:D8" si="0">100*(C5-C4)/C4</f>
+        <v>5.1485148514851486</v>
       </c>
       <c r="J5">
         <v>55</v>
@@ -725,9 +728,9 @@
         <f>SUM(P50:P51)</f>
         <v>417</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>-0.21468926553672316</v>
+        <v>-21.468926553672315</v>
       </c>
       <c r="J6">
         <v>250</v>
@@ -761,9 +764,9 @@
       <c r="C7">
         <v>373</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>-0.10551558752997602</v>
+        <v>-10.551558752997602</v>
       </c>
       <c r="J7">
         <v>255</v>
@@ -797,9 +800,9 @@
       <c r="C8">
         <v>287</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>-0.23056300268096513</v>
+        <v>-23.056300268096514</v>
       </c>
       <c r="J8">
         <v>244</v>
@@ -834,7 +837,7 @@
         <f>SUM(H52:H54)</f>
         <v>142</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>0</v>
       </c>
       <c r="J9">
@@ -870,9 +873,9 @@
         <f>SUM(J52:J55)</f>
         <v>285</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0070422535211268</v>
+      <c r="D10" s="6">
+        <f>100*(C10-C9)/C9</f>
+        <v>100.70422535211267</v>
       </c>
       <c r="J10">
         <v>189</v>
@@ -907,9 +910,9 @@
         <f>SUM(L52:L54)</f>
         <v>272</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>-4.5614035087719301E-2</v>
+      <c r="D11" s="6">
+        <f t="shared" ref="D11:D64" si="1">100*(C11-C10)/C10</f>
+        <v>-4.5614035087719298</v>
       </c>
       <c r="J11">
         <v>153</v>
@@ -944,9 +947,9 @@
         <f>SUM(N52:N54)</f>
         <v>237</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.12867647058823528</v>
+      <c r="D12" s="6">
+        <f t="shared" si="1"/>
+        <v>-12.867647058823529</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -964,9 +967,9 @@
         <f>SUM(P52:P54)</f>
         <v>147</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.379746835443038</v>
+      <c r="D13" s="6">
+        <f t="shared" si="1"/>
+        <v>-37.974683544303801</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -980,9 +983,9 @@
         <f>SUM(R51:R53)</f>
         <v>254</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.72789115646258506</v>
+      <c r="D14" s="6">
+        <f t="shared" si="1"/>
+        <v>72.789115646258509</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -996,9 +999,9 @@
         <f>SUM(T51:T53)</f>
         <v>220</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.13385826771653545</v>
+      <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>-13.385826771653543</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1011,7 +1014,7 @@
       <c r="C16">
         <v>55</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1025,9 +1028,9 @@
       <c r="C17">
         <v>250</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>3.5454545454545454</v>
+      <c r="D17" s="6">
+        <f t="shared" si="1"/>
+        <v>354.54545454545456</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -1040,9 +1043,9 @@
       <c r="C18">
         <v>255</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
+      <c r="D18" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -1055,9 +1058,9 @@
       <c r="C19">
         <v>244</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>-4.3137254901960784E-2</v>
+      <c r="D19" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.3137254901960782</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -1070,9 +1073,9 @@
       <c r="C20">
         <v>256</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>4.9180327868852458E-2</v>
+      <c r="D20" s="6">
+        <f t="shared" si="1"/>
+        <v>4.918032786885246</v>
       </c>
       <c r="J20" t="s">
         <v>2</v>
@@ -1114,9 +1117,9 @@
       <c r="C21">
         <v>189</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.26171875</v>
+      <c r="D21" s="6">
+        <f t="shared" si="1"/>
+        <v>-26.171875</v>
       </c>
       <c r="J21" t="s">
         <v>3</v>
@@ -1158,9 +1161,9 @@
       <c r="C22">
         <v>153</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.19047619047619047</v>
+      <c r="D22" s="6">
+        <f t="shared" si="1"/>
+        <v>-19.047619047619047</v>
       </c>
       <c r="J22" t="s">
         <v>4</v>
@@ -1204,7 +1207,7 @@
       <c r="C23">
         <v>13</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="6">
         <v>0</v>
       </c>
       <c r="J23" t="s">
@@ -1247,9 +1250,9 @@
       <c r="C24">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
+      <c r="D24" s="6">
+        <f t="shared" si="1"/>
+        <v>46.153846153846153</v>
       </c>
       <c r="J24" t="s">
         <v>6</v>
@@ -1291,8 +1294,8 @@
       <c r="C25">
         <v>19</v>
       </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
+      <c r="D25" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" t="s">
@@ -1335,9 +1338,9 @@
       <c r="C26">
         <v>18</v>
       </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>-5.2631578947368418E-2</v>
+      <c r="D26" s="6">
+        <f t="shared" si="1"/>
+        <v>-5.2631578947368425</v>
       </c>
       <c r="J26" t="s">
         <v>8</v>
@@ -1379,9 +1382,9 @@
       <c r="C27">
         <v>5</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.72222222222222221</v>
+      <c r="D27" s="6">
+        <f t="shared" si="1"/>
+        <v>-72.222222222222229</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -1394,9 +1397,9 @@
       <c r="C28">
         <v>13</v>
       </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
+      <c r="D28" s="6">
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -1409,9 +1412,9 @@
       <c r="C29">
         <v>7</v>
       </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.46153846153846156</v>
+      <c r="D29" s="6">
+        <f t="shared" si="1"/>
+        <v>-46.153846153846153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -1424,7 +1427,7 @@
       <c r="C30">
         <v>921</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1438,9 +1441,9 @@
       <c r="C31">
         <v>1286</v>
       </c>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>0.39630836047774159</v>
+      <c r="D31" s="6">
+        <f t="shared" si="1"/>
+        <v>39.63083604777416</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -1453,9 +1456,9 @@
       <c r="C32">
         <v>838</v>
       </c>
-      <c r="D32" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.34836702954898913</v>
+      <c r="D32" s="6">
+        <f t="shared" si="1"/>
+        <v>-34.836702954898911</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1468,9 +1471,9 @@
       <c r="C33">
         <v>1292</v>
       </c>
-      <c r="D33" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5417661097852029</v>
+      <c r="D33" s="6">
+        <f t="shared" si="1"/>
+        <v>54.176610978520287</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1483,9 +1486,9 @@
       <c r="C34">
         <v>1007</v>
       </c>
-      <c r="D34" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.22058823529411764</v>
+      <c r="D34" s="6">
+        <f t="shared" si="1"/>
+        <v>-22.058823529411764</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1498,9 +1501,9 @@
       <c r="C35">
         <v>966</v>
       </c>
-      <c r="D35" s="3">
-        <f t="shared" si="0"/>
-        <v>-4.0714995034756701E-2</v>
+      <c r="D35" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.0714995034756702</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1513,9 +1516,9 @@
       <c r="C36">
         <v>853</v>
       </c>
-      <c r="D36" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.11697722567287784</v>
+      <c r="D36" s="6">
+        <f t="shared" si="1"/>
+        <v>-11.697722567287785</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1528,7 +1531,7 @@
       <c r="C37">
         <v>125</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1542,9 +1545,9 @@
       <c r="C38">
         <v>220</v>
       </c>
-      <c r="D38" s="3">
-        <f t="shared" si="0"/>
-        <v>0.76</v>
+      <c r="D38" s="6">
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1557,9 +1560,9 @@
       <c r="C39">
         <v>176</v>
       </c>
-      <c r="D39" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.2</v>
+      <c r="D39" s="6">
+        <f t="shared" si="1"/>
+        <v>-20</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1572,9 +1575,9 @@
       <c r="C40">
         <v>178</v>
       </c>
-      <c r="D40" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1363636363636364E-2</v>
+      <c r="D40" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1363636363636365</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1587,9 +1590,9 @@
       <c r="C41">
         <v>59</v>
       </c>
-      <c r="D41" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.6685393258426966</v>
+      <c r="D41" s="6">
+        <f t="shared" si="1"/>
+        <v>-66.853932584269657</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1602,9 +1605,9 @@
       <c r="C42">
         <v>348</v>
       </c>
-      <c r="D42" s="3">
-        <f t="shared" si="0"/>
-        <v>4.898305084745763</v>
+      <c r="D42" s="6">
+        <f t="shared" si="1"/>
+        <v>489.83050847457628</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1617,9 +1620,9 @@
       <c r="C43">
         <v>223</v>
       </c>
-      <c r="D43" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.35919540229885055</v>
+      <c r="D43" s="6">
+        <f t="shared" si="1"/>
+        <v>-35.919540229885058</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1632,7 +1635,7 @@
       <c r="C44">
         <v>170</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1646,9 +1649,9 @@
       <c r="C45">
         <v>350</v>
       </c>
-      <c r="D45" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0588235294117647</v>
+      <c r="D45" s="6">
+        <f t="shared" si="1"/>
+        <v>105.88235294117646</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1661,9 +1664,9 @@
       <c r="C46">
         <v>319</v>
       </c>
-      <c r="D46" s="3">
-        <f t="shared" si="0"/>
-        <v>-8.8571428571428565E-2</v>
+      <c r="D46" s="6">
+        <f t="shared" si="1"/>
+        <v>-8.8571428571428577</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1676,9 +1679,9 @@
       <c r="C47">
         <v>457</v>
       </c>
-      <c r="D47" s="3">
-        <f t="shared" si="0"/>
-        <v>0.43260188087774293</v>
+      <c r="D47" s="6">
+        <f t="shared" si="1"/>
+        <v>43.260188087774296</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1691,9 +1694,9 @@
       <c r="C48">
         <v>304</v>
       </c>
-      <c r="D48" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.33479212253829321</v>
+      <c r="D48" s="6">
+        <f t="shared" si="1"/>
+        <v>-33.479212253829324</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
@@ -1706,9 +1709,9 @@
       <c r="C49">
         <v>284</v>
       </c>
-      <c r="D49" s="3">
-        <f t="shared" si="0"/>
-        <v>-6.5789473684210523E-2</v>
+      <c r="D49" s="6">
+        <f t="shared" si="1"/>
+        <v>-6.5789473684210522</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -1721,9 +1724,9 @@
       <c r="C50">
         <v>225</v>
       </c>
-      <c r="D50" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.20774647887323944</v>
+      <c r="D50" s="6">
+        <f t="shared" si="1"/>
+        <v>-20.774647887323944</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>9</v>
@@ -1778,7 +1781,7 @@
       <c r="C51">
         <v>27</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="6">
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -1834,8 +1837,8 @@
       <c r="C52">
         <v>27</v>
       </c>
-      <c r="D52" s="3">
-        <f t="shared" si="0"/>
+      <c r="D52" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -1891,9 +1894,9 @@
       <c r="C53">
         <v>24</v>
       </c>
-      <c r="D53" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.1111111111111111</v>
+      <c r="D53" s="6">
+        <f t="shared" si="1"/>
+        <v>-11.111111111111111</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>12</v>
@@ -1948,9 +1951,9 @@
       <c r="C54">
         <v>34</v>
       </c>
-      <c r="D54" s="3">
-        <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+      <c r="D54" s="6">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>13</v>
@@ -2005,9 +2008,9 @@
       <c r="C55">
         <v>89</v>
       </c>
-      <c r="D55" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6176470588235294</v>
+      <c r="D55" s="6">
+        <f t="shared" si="1"/>
+        <v>161.76470588235293</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>14</v>
@@ -2062,9 +2065,9 @@
       <c r="C56">
         <v>127</v>
       </c>
-      <c r="D56" s="3">
-        <f t="shared" si="0"/>
-        <v>0.42696629213483145</v>
+      <c r="D56" s="6">
+        <f t="shared" si="1"/>
+        <v>42.696629213483149</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>15</v>
@@ -2119,9 +2122,9 @@
       <c r="C57">
         <v>103</v>
       </c>
-      <c r="D57" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.1889763779527559</v>
+      <c r="D57" s="6">
+        <f t="shared" si="1"/>
+        <v>-18.897637795275589</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>16</v>
@@ -2176,7 +2179,7 @@
       <c r="C58">
         <v>122</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="6">
         <v>0</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -2232,9 +2235,9 @@
       <c r="C59">
         <v>323</v>
       </c>
-      <c r="D59" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6475409836065573</v>
+      <c r="D59" s="6">
+        <f t="shared" si="1"/>
+        <v>164.75409836065575</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>18</v>
@@ -2289,9 +2292,9 @@
       <c r="C60">
         <v>246</v>
       </c>
-      <c r="D60" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.23839009287925697</v>
+      <c r="D60" s="6">
+        <f t="shared" si="1"/>
+        <v>-23.839009287925698</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>19</v>
@@ -2346,9 +2349,9 @@
       <c r="C61">
         <v>185</v>
       </c>
-      <c r="D61" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.24796747967479674</v>
+      <c r="D61" s="6">
+        <f t="shared" si="1"/>
+        <v>-24.796747967479675</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>20</v>
@@ -2403,9 +2406,9 @@
       <c r="C62">
         <v>128</v>
       </c>
-      <c r="D62" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.30810810810810813</v>
+      <c r="D62" s="6">
+        <f t="shared" si="1"/>
+        <v>-30.810810810810811</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>21</v>
@@ -2460,9 +2463,9 @@
       <c r="C63">
         <v>127</v>
       </c>
-      <c r="D63" s="3">
-        <f t="shared" si="0"/>
-        <v>-7.8125E-3</v>
+      <c r="D63" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.78125</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>22</v>
@@ -2517,9 +2520,9 @@
       <c r="C64">
         <v>76</v>
       </c>
-      <c r="D64" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.40157480314960631</v>
+      <c r="D64" s="6">
+        <f t="shared" si="1"/>
+        <v>-40.15748031496063</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>23</v>
